--- a/src/test/resources/testdata/test_normal _development.xlsx
+++ b/src/test/resources/testdata/test_normal _development.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>password</t>
   </si>
@@ -50,9 +50,6 @@
     <t>test1</t>
   </si>
   <si>
-    <t>test2</t>
-  </si>
-  <si>
     <t>passjdfdfdfdff</t>
   </si>
   <si>
@@ -66,6 +63,12 @@
   </si>
   <si>
     <t>ADMIN, MANAGER</t>
+  </si>
+  <si>
+    <t>ADMIN, ADMIN</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,44 +453,53 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>